--- a/Rutvi Manishbhai Patel-Problem Solving-A3 Report for Health Insurance Claim Process.xlsx
+++ b/Rutvi Manishbhai Patel-Problem Solving-A3 Report for Health Insurance Claim Process.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/689c75f7557d7fcc/Documents/ITBA/Level 2/BPFA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{90D3B1E1-25E5-4DBC-855D-F98DA67AEE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08C5540-47F4-4876-97DB-115189C33835}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{90D3B1E1-25E5-4DBC-855D-F98DA67AEE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156FB4F0-1576-4009-B234-E33DADD6F3C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2B0DA3D7-C765-4CAB-9C9C-23D81D02799E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2B0DA3D7-C765-4CAB-9C9C-23D81D02799E}"/>
   </bookViews>
   <sheets>
-    <sheet name="A3 Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId1"/>
+    <sheet name="A3 Report" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -192,6 +193,12 @@
   </si>
   <si>
     <t>Claim Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complexity has grown for Health care insurance companies significantly. For years, consumers have complained that they do not know how to navigate the legal terms and conditions to get the most out of their health insurance policy. To stay in the game, Insurance Companies must address the issue and simplify the adjudication process for their policyholders. In this project, you will use Lean A3 problem solving methodology to simplify a Health Insurance Claim process. </t>
+  </si>
+  <si>
+    <t>A Brief Problem Description of the Health Care Insurance</t>
   </si>
 </sst>
 </file>
@@ -201,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +250,19 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -461,7 +481,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -556,219 +576,237 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -778,23 +816,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1345,6 +1374,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1661,10 +1694,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DC2940-7127-442A-A51F-744AD1AFF559}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="113"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:H8"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D8F3A4-AC80-4E81-810E-E1597A932D45}">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -2763,33 +2918,33 @@
     <row r="1" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="48"/>
+      <c r="H2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="K2" s="90" t="s">
+      <c r="I2" s="48"/>
+      <c r="K2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5">
         <v>1</v>
@@ -2797,15 +2952,15 @@
       <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="K3" s="88" t="s">
+      <c r="I3" s="42"/>
+      <c r="K3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2819,18 +2974,18 @@
       <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="92"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
       <c r="L4" s="4"/>
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="2"/>
       <c r="E5" s="7">
         <v>3</v>
@@ -2838,21 +2993,21 @@
       <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="92"/>
-      <c r="K5" s="83" t="s">
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="K5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="83"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="2"/>
       <c r="E6" s="9">
         <v>4</v>
@@ -2860,12 +3015,12 @@
       <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="K6" s="84" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="K6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="84"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="1"/>
       <c r="O6" s="1"/>
     </row>
@@ -2882,125 +3037,125 @@
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="34"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="73"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="14"/>
       <c r="N9" s="15"/>
       <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="108"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
       <c r="N11" s="19"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
       <c r="N12" s="19"/>
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="108"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
       <c r="N13" s="19"/>
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="108"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
       <c r="N14" s="19"/>
       <c r="O14" s="20"/>
     </row>
@@ -3012,11 +3167,11 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="108"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
       <c r="N15" s="19"/>
       <c r="O15" s="20"/>
     </row>
@@ -3030,305 +3185,305 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
       <c r="N16" s="19"/>
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="108"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
       <c r="N17" s="19"/>
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="108"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
       <c r="N18" s="19"/>
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="108"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
       <c r="N19" s="19"/>
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="108"/>
-      <c r="N20" s="32" t="s">
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
+      <c r="N20" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="103"/>
+      <c r="O20" s="109"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="108"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="103"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="63"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="109"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="34"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="108"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="103"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="109"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="108"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="103"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="109"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="103"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="109"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="105"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="111"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="97"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="108"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
       <c r="N26" s="23"/>
       <c r="O26" s="24"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="108"/>
-      <c r="N27" s="33" t="s">
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
+      <c r="N27" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="34"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="108"/>
-      <c r="N28" s="70" t="s">
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
+      <c r="N28" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O28" s="98"/>
+      <c r="O28" s="50"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="108"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="100"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="52"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="108"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="100"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="97"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="108"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="100"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="52"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="97"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="111"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="100"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="52"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="97"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="95" t="s">
+      <c r="H33" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="100"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="52"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="97"/>
       <c r="G34" s="12"/>
       <c r="H34" s="25"/>
       <c r="I34" s="26" t="s">
@@ -3343,277 +3498,277 @@
       <c r="L34" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="99"/>
-      <c r="O34" s="100"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="52"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="97"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="74">
+      <c r="H35" s="73">
         <v>1</v>
       </c>
-      <c r="I35" s="68" t="s">
+      <c r="I35" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="78" t="s">
+      <c r="K35" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="68" t="s">
+      <c r="L35" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="99"/>
-      <c r="O35" s="100"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="69"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="100"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="77"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="52"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="97"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="77"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="100"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="78"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="52"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="97"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="81">
+      <c r="H38" s="82">
         <v>2</v>
       </c>
-      <c r="I38" s="68" t="s">
+      <c r="I38" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="68" t="s">
+      <c r="J38" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="68" t="s">
+      <c r="K38" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="L38" s="68" t="s">
+      <c r="L38" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="N38" s="99"/>
-      <c r="O38" s="100"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="52"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="97"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="52"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="97"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="66">
+      <c r="H40" s="88">
         <v>3</v>
       </c>
-      <c r="I40" s="68" t="s">
+      <c r="I40" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="68" t="s">
+      <c r="J40" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="68" t="s">
+      <c r="K40" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N40" s="99"/>
-      <c r="O40" s="100"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="52"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="97"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="100"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="52"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="41"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="100"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="52"/>
     </row>
     <row r="43" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="100"/>
       <c r="G43" s="12"/>
       <c r="H43" s="15"/>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="16"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="100"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="52"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="34"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="12"/>
       <c r="H44" s="19"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="20"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="100"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="52"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="28">
         <v>1</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="63"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="12"/>
       <c r="H45" s="19"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="20"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="100"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="52"/>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="28">
         <v>2</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="63"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
       <c r="G46" s="12"/>
       <c r="H46" s="19"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="20"/>
-      <c r="N46" s="99"/>
-      <c r="O46" s="100"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="52"/>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="28">
         <v>3</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
       <c r="G47" s="12"/>
       <c r="H47" s="19"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="20"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="100"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="52"/>
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="29">
         <v>4</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="63"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="69"/>
       <c r="G48" s="12"/>
       <c r="H48" s="23"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
       <c r="L48" s="24"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="102"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="54"/>
     </row>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3680,12 +3835,20 @@
     <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H3:I6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="N28:O48"/>
-    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B23:F43"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B17:F21"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H42:L42"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="H9:L32"/>
     <mergeCell ref="C45:F45"/>
@@ -3700,25 +3863,17 @@
     <mergeCell ref="J38:J39"/>
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H42:L42"/>
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="I40:I41"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H3:I6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N28:O48"/>
+    <mergeCell ref="N27:O27"/>
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="K40:K41"/>
     <mergeCell ref="L40:L41"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B23:F43"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B17:F21"/>
     <mergeCell ref="N20:O25"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="H8:L8"/>
